--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Ifna11-Ifnar2.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Ifna11-Ifnar2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -79,22 +79,22 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>Ifna11</t>
+  </si>
+  <si>
+    <t>Ifnar2</t>
+  </si>
+  <si>
+    <t>ECs</t>
+  </si>
+  <si>
+    <t>Inflammatory-Mac</t>
+  </si>
+  <si>
+    <t>MuSCs</t>
+  </si>
+  <si>
     <t>Resolving-Mac</t>
-  </si>
-  <si>
-    <t>Ifna11</t>
-  </si>
-  <si>
-    <t>Ifnar2</t>
-  </si>
-  <si>
-    <t>ECs</t>
-  </si>
-  <si>
-    <t>Inflammatory-Mac</t>
-  </si>
-  <si>
-    <t>MuSCs</t>
   </si>
 </sst>
 </file>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T11"/>
+  <dimension ref="A1:T6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,13 +525,13 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" t="s">
         <v>22</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>23</v>
-      </c>
-      <c r="D2" t="s">
-        <v>24</v>
       </c>
       <c r="E2">
         <v>1</v>
@@ -546,10 +546,10 @@
         <v>0.463307</v>
       </c>
       <c r="I2">
-        <v>0.9179194668103722</v>
+        <v>1</v>
       </c>
       <c r="J2">
-        <v>0.9179194668103722</v>
+        <v>1</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>26.65724566666666</v>
+        <v>17.95291733333333</v>
       </c>
       <c r="N2">
-        <v>79.97173699999999</v>
+        <v>53.858752</v>
       </c>
       <c r="O2">
-        <v>0.1289633445676506</v>
+        <v>0.07393528283891208</v>
       </c>
       <c r="P2">
-        <v>0.1319729422695888</v>
+        <v>0.07489467518434184</v>
       </c>
       <c r="Q2">
-        <v>4.116829506028777</v>
+        <v>2.772570756984889</v>
       </c>
       <c r="R2">
-        <v>37.051465554259</v>
+        <v>24.953136812864</v>
       </c>
       <c r="S2">
-        <v>0.1183779644836202</v>
+        <v>0.07393528283891208</v>
       </c>
       <c r="T2">
-        <v>0.121140532801497</v>
+        <v>0.07489467518434184</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,10 +587,10 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3" t="s">
         <v>22</v>
-      </c>
-      <c r="C3" t="s">
-        <v>23</v>
       </c>
       <c r="D3" t="s">
         <v>20</v>
@@ -608,10 +608,10 @@
         <v>0.463307</v>
       </c>
       <c r="I3">
-        <v>0.9179194668103722</v>
+        <v>1</v>
       </c>
       <c r="J3">
-        <v>0.9179194668103722</v>
+        <v>1</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>92.525465</v>
       </c>
       <c r="O3">
-        <v>0.1492076309918978</v>
+        <v>0.1270155020409099</v>
       </c>
       <c r="P3">
-        <v>0.1526896664869473</v>
+        <v>0.1286636691369156</v>
       </c>
       <c r="Q3">
         <v>4.763077290306111</v>
       </c>
       <c r="R3">
-        <v>42.86769561275499</v>
+        <v>42.867695612755</v>
       </c>
       <c r="S3">
-        <v>0.1369605890841216</v>
+        <v>0.1270155020409099</v>
       </c>
       <c r="T3">
-        <v>0.1401568172491522</v>
+        <v>0.1286636691369156</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,13 +649,13 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" t="s">
         <v>22</v>
       </c>
-      <c r="C4" t="s">
-        <v>23</v>
-      </c>
       <c r="D4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E4">
         <v>1</v>
@@ -670,10 +670,10 @@
         <v>0.463307</v>
       </c>
       <c r="I4">
-        <v>0.9179194668103722</v>
+        <v>1</v>
       </c>
       <c r="J4">
-        <v>0.9179194668103722</v>
+        <v>1</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>68.43473999999999</v>
+        <v>100.6030296666667</v>
       </c>
       <c r="N4">
-        <v>205.30422</v>
+        <v>301.809089</v>
       </c>
       <c r="O4">
-        <v>0.3310759508081305</v>
+        <v>0.4143122432277931</v>
       </c>
       <c r="P4">
-        <v>0.3388022192610742</v>
+        <v>0.4196884043718117</v>
       </c>
       <c r="Q4">
-        <v>10.56876469506</v>
+        <v>15.53669595525811</v>
       </c>
       <c r="R4">
-        <v>95.11888225553999</v>
+        <v>139.830263597323</v>
       </c>
       <c r="S4">
-        <v>0.3039010602395361</v>
+        <v>0.4143122432277931</v>
       </c>
       <c r="T4">
-        <v>0.3109931524582961</v>
+        <v>0.4196884043718117</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,13 +711,13 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5" t="s">
         <v>22</v>
       </c>
-      <c r="C5" t="s">
-        <v>23</v>
-      </c>
       <c r="D5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E5">
         <v>1</v>
@@ -732,10 +732,10 @@
         <v>0.463307</v>
       </c>
       <c r="I5">
-        <v>0.9179194668103722</v>
+        <v>1</v>
       </c>
       <c r="J5">
-        <v>0.9179194668103722</v>
+        <v>1</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>14.141445</v>
+        <v>9.3314655</v>
       </c>
       <c r="N5">
-        <v>28.28289</v>
+        <v>18.662931</v>
       </c>
       <c r="O5">
-        <v>0.0684139714591724</v>
+        <v>0.03842966177775806</v>
       </c>
       <c r="P5">
-        <v>0.04667369184674745</v>
+        <v>0.02595221952474473</v>
       </c>
       <c r="Q5">
-        <v>2.183943486205</v>
+        <v>1.4411110954695</v>
       </c>
       <c r="R5">
-        <v>13.10366091723</v>
+        <v>8.646666572817001</v>
       </c>
       <c r="S5">
-        <v>0.06279851620418354</v>
+        <v>0.03842966177775806</v>
       </c>
       <c r="T5">
-        <v>0.04284269033403804</v>
+        <v>0.02595221952474473</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -773,13 +773,13 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6" t="s">
         <v>22</v>
       </c>
-      <c r="C6" t="s">
-        <v>23</v>
-      </c>
       <c r="D6" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="E6">
         <v>1</v>
@@ -794,10 +794,10 @@
         <v>0.463307</v>
       </c>
       <c r="I6">
-        <v>0.9179194668103722</v>
+        <v>1</v>
       </c>
       <c r="J6">
-        <v>0.9179194668103722</v>
+        <v>1</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,338 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>66.628798</v>
+        <v>84.09011600000001</v>
       </c>
       <c r="N6">
-        <v>199.886394</v>
+        <v>252.270348</v>
       </c>
       <c r="O6">
-        <v>0.3223391021731487</v>
+        <v>0.3463073101146269</v>
       </c>
       <c r="P6">
-        <v>0.329861480135642</v>
+        <v>0.3508010317821862</v>
       </c>
       <c r="Q6">
-        <v>10.28986283832867</v>
+        <v>12.98651312453733</v>
       </c>
       <c r="R6">
-        <v>92.60876554495799</v>
+        <v>116.878618120836</v>
       </c>
       <c r="S6">
-        <v>0.2958813367989108</v>
+        <v>0.3463073101146269</v>
       </c>
       <c r="T6">
-        <v>0.3027862739673887</v>
-      </c>
-    </row>
-    <row r="7" spans="1:20">
-      <c r="A7" t="s">
-        <v>21</v>
-      </c>
-      <c r="B7" t="s">
-        <v>22</v>
-      </c>
-      <c r="C7" t="s">
-        <v>23</v>
-      </c>
-      <c r="D7" t="s">
-        <v>24</v>
-      </c>
-      <c r="E7">
-        <v>1</v>
-      </c>
-      <c r="F7">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G7">
-        <v>0.01380966666666667</v>
-      </c>
-      <c r="H7">
-        <v>0.041429</v>
-      </c>
-      <c r="I7">
-        <v>0.08208053318962784</v>
-      </c>
-      <c r="J7">
-        <v>0.08208053318962785</v>
-      </c>
-      <c r="K7">
-        <v>3</v>
-      </c>
-      <c r="L7">
-        <v>1</v>
-      </c>
-      <c r="M7">
-        <v>26.65724566666666</v>
-      </c>
-      <c r="N7">
-        <v>79.97173699999999</v>
-      </c>
-      <c r="O7">
-        <v>0.1289633445676506</v>
-      </c>
-      <c r="P7">
-        <v>0.1319729422695888</v>
-      </c>
-      <c r="Q7">
-        <v>0.368127676908111</v>
-      </c>
-      <c r="R7">
-        <v>3.313149092173</v>
-      </c>
-      <c r="S7">
-        <v>0.01058538008403046</v>
-      </c>
-      <c r="T7">
-        <v>0.01083240946809183</v>
-      </c>
-    </row>
-    <row r="8" spans="1:20">
-      <c r="A8" t="s">
-        <v>21</v>
-      </c>
-      <c r="B8" t="s">
-        <v>22</v>
-      </c>
-      <c r="C8" t="s">
-        <v>23</v>
-      </c>
-      <c r="D8" t="s">
-        <v>20</v>
-      </c>
-      <c r="E8">
-        <v>1</v>
-      </c>
-      <c r="F8">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G8">
-        <v>0.01380966666666667</v>
-      </c>
-      <c r="H8">
-        <v>0.041429</v>
-      </c>
-      <c r="I8">
-        <v>0.08208053318962784</v>
-      </c>
-      <c r="J8">
-        <v>0.08208053318962785</v>
-      </c>
-      <c r="K8">
-        <v>3</v>
-      </c>
-      <c r="L8">
-        <v>1</v>
-      </c>
-      <c r="M8">
-        <v>30.84182166666666</v>
-      </c>
-      <c r="N8">
-        <v>92.525465</v>
-      </c>
-      <c r="O8">
-        <v>0.1492076309918978</v>
-      </c>
-      <c r="P8">
-        <v>0.1526896664869473</v>
-      </c>
-      <c r="Q8">
-        <v>0.4259152766094444</v>
-      </c>
-      <c r="R8">
-        <v>3.833237489485</v>
-      </c>
-      <c r="S8">
-        <v>0.01224704190777621</v>
-      </c>
-      <c r="T8">
-        <v>0.01253284923779508</v>
-      </c>
-    </row>
-    <row r="9" spans="1:20">
-      <c r="A9" t="s">
-        <v>21</v>
-      </c>
-      <c r="B9" t="s">
-        <v>22</v>
-      </c>
-      <c r="C9" t="s">
-        <v>23</v>
-      </c>
-      <c r="D9" t="s">
-        <v>25</v>
-      </c>
-      <c r="E9">
-        <v>1</v>
-      </c>
-      <c r="F9">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G9">
-        <v>0.01380966666666667</v>
-      </c>
-      <c r="H9">
-        <v>0.041429</v>
-      </c>
-      <c r="I9">
-        <v>0.08208053318962784</v>
-      </c>
-      <c r="J9">
-        <v>0.08208053318962785</v>
-      </c>
-      <c r="K9">
-        <v>3</v>
-      </c>
-      <c r="L9">
-        <v>1</v>
-      </c>
-      <c r="M9">
-        <v>68.43473999999999</v>
-      </c>
-      <c r="N9">
-        <v>205.30422</v>
-      </c>
-      <c r="O9">
-        <v>0.3310759508081305</v>
-      </c>
-      <c r="P9">
-        <v>0.3388022192610742</v>
-      </c>
-      <c r="Q9">
-        <v>0.9450609478199998</v>
-      </c>
-      <c r="R9">
-        <v>8.505548530379999</v>
-      </c>
-      <c r="S9">
-        <v>0.02717489056859435</v>
-      </c>
-      <c r="T9">
-        <v>0.02780906680277818</v>
-      </c>
-    </row>
-    <row r="10" spans="1:20">
-      <c r="A10" t="s">
-        <v>21</v>
-      </c>
-      <c r="B10" t="s">
-        <v>22</v>
-      </c>
-      <c r="C10" t="s">
-        <v>23</v>
-      </c>
-      <c r="D10" t="s">
-        <v>26</v>
-      </c>
-      <c r="E10">
-        <v>1</v>
-      </c>
-      <c r="F10">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G10">
-        <v>0.01380966666666667</v>
-      </c>
-      <c r="H10">
-        <v>0.041429</v>
-      </c>
-      <c r="I10">
-        <v>0.08208053318962784</v>
-      </c>
-      <c r="J10">
-        <v>0.08208053318962785</v>
-      </c>
-      <c r="K10">
-        <v>2</v>
-      </c>
-      <c r="L10">
-        <v>1</v>
-      </c>
-      <c r="M10">
-        <v>14.141445</v>
-      </c>
-      <c r="N10">
-        <v>28.28289</v>
-      </c>
-      <c r="O10">
-        <v>0.0684139714591724</v>
-      </c>
-      <c r="P10">
-        <v>0.04667369184674745</v>
-      </c>
-      <c r="Q10">
-        <v>0.195288641635</v>
-      </c>
-      <c r="R10">
-        <v>1.17173184981</v>
-      </c>
-      <c r="S10">
-        <v>0.005615455254988851</v>
-      </c>
-      <c r="T10">
-        <v>0.003831001512709417</v>
-      </c>
-    </row>
-    <row r="11" spans="1:20">
-      <c r="A11" t="s">
-        <v>21</v>
-      </c>
-      <c r="B11" t="s">
-        <v>22</v>
-      </c>
-      <c r="C11" t="s">
-        <v>23</v>
-      </c>
-      <c r="D11" t="s">
-        <v>21</v>
-      </c>
-      <c r="E11">
-        <v>1</v>
-      </c>
-      <c r="F11">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G11">
-        <v>0.01380966666666667</v>
-      </c>
-      <c r="H11">
-        <v>0.041429</v>
-      </c>
-      <c r="I11">
-        <v>0.08208053318962784</v>
-      </c>
-      <c r="J11">
-        <v>0.08208053318962785</v>
-      </c>
-      <c r="K11">
-        <v>3</v>
-      </c>
-      <c r="L11">
-        <v>1</v>
-      </c>
-      <c r="M11">
-        <v>66.628798</v>
-      </c>
-      <c r="N11">
-        <v>199.886394</v>
-      </c>
-      <c r="O11">
-        <v>0.3223391021731487</v>
-      </c>
-      <c r="P11">
-        <v>0.329861480135642</v>
-      </c>
-      <c r="Q11">
-        <v>0.9201214907806667</v>
-      </c>
-      <c r="R11">
-        <v>8.281093417026</v>
-      </c>
-      <c r="S11">
-        <v>0.02645776537423797</v>
-      </c>
-      <c r="T11">
-        <v>0.02707520616825334</v>
+        <v>0.3508010317821862</v>
       </c>
     </row>
   </sheetData>
